--- a/PhanTich&DamBaoChatLuongPhanMem/Book1.xlsx
+++ b/PhanTich&DamBaoChatLuongPhanMem/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc tot nghiep\Mr Hung\ThamKhaoTrinhVanMinh_HocMsNgoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Develop1\Desktop\RestaurantManagementSystem\PhanTich&amp;DamBaoChatLuongPhanMem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCEC42AC-3F82-4464-B182-81D5D9AB08BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763A1D32-5DBD-45B6-9B23-7D9993FA5F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{30A398E3-CA29-46BA-A448-E6FF9C01541E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30A398E3-CA29-46BA-A448-E6FF9C01541E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>tblNhaCungCapStart</t>
   </si>
@@ -81,9 +81,6 @@
     <t>17/10/2019</t>
   </si>
   <si>
-    <t>tblHoaDonNhap</t>
-  </si>
-  <si>
     <t>maHoaDon</t>
   </si>
   <si>
@@ -109,6 +106,48 @@
   </si>
   <si>
     <t>ngao</t>
+  </si>
+  <si>
+    <t>tblNguyenLieu</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>idNhaCungCap</t>
+  </si>
+  <si>
+    <t>gia</t>
+  </si>
+  <si>
+    <t>moTa</t>
+  </si>
+  <si>
+    <t>tblHoaDonNhapNguyenLieu</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>diaChi</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>SDT</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>================================================================================================================================================================</t>
+  </si>
+  <si>
+    <t>khi JOIN các bảng sẽ ra được như thế này</t>
+  </si>
+  <si>
+    <t>rau muong</t>
   </si>
 </sst>
 </file>
@@ -165,10 +204,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,31 +524,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1FF16-BC35-494E-B31D-5D7098422C4C}">
-  <dimension ref="C4:M23"/>
+  <dimension ref="B4:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
+    <col min="12" max="12" width="27.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,20 +563,8 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -546,20 +577,8 @@
       <c r="F6" s="1">
         <v>10000000</v>
       </c>
-      <c r="J6" s="1">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1500</v>
-      </c>
-      <c r="M6" s="1">
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -572,20 +591,8 @@
       <c r="F7" s="1">
         <v>15000000</v>
       </c>
-      <c r="J7" s="1">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="1">
-        <v>3000</v>
-      </c>
-      <c r="M7" s="1">
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -598,8 +605,20 @@
       <c r="F8" s="1">
         <v>25000000</v>
       </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -612,33 +631,68 @@
       <c r="F9" s="1">
         <v>30000000</v>
       </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <v>3</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="N10" s="1">
+        <v>4</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3000</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
@@ -648,17 +702,14 @@
       <c r="E13" s="1">
         <v>5000000</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="1">
-        <v>100</v>
-      </c>
-      <c r="L13" s="1">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
@@ -668,17 +719,14 @@
       <c r="E14" s="1">
         <v>2000000</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="1">
-        <v>200</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
@@ -688,8 +736,14 @@
       <c r="E15" s="1">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
@@ -699,38 +753,56 @@
       <c r="E16" s="1">
         <v>30000000</v>
       </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1">
         <v>100000</v>
@@ -741,13 +813,25 @@
       <c r="G20" s="1">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="N20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="1">
+        <v>100</v>
+      </c>
+      <c r="P20" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1">
         <v>200000</v>
@@ -758,13 +842,25 @@
       <c r="G21" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="N21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="1">
+        <v>200</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="1">
         <v>300000</v>
@@ -776,12 +872,15 @@
         <v>90000000</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" s="1">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1">
         <v>400000</v>
@@ -791,6 +890,309 @@
       </c>
       <c r="G23" s="1">
         <v>160000000</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E38" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1">
+        <v>200</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1">
+        <v>100</v>
+      </c>
+      <c r="D45" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1">
+        <v>300</v>
+      </c>
+      <c r="D46" s="1">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E51" s="1">
+        <v>100</v>
+      </c>
+      <c r="F51" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E52" s="1">
+        <v>200</v>
+      </c>
+      <c r="F52" s="1">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="1">
+        <v>300000</v>
+      </c>
+      <c r="E53" s="1">
+        <v>300</v>
+      </c>
+      <c r="F53" s="1">
+        <v>90000000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="1">
+        <v>400000</v>
+      </c>
+      <c r="E54" s="1">
+        <v>400</v>
+      </c>
+      <c r="F54" s="1">
+        <v>160000000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="1">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E55" s="1">
+        <v>100</v>
+      </c>
+      <c r="F55" s="1">
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>
